--- a/xlsx/aerob-run-3km.xlsx
+++ b/xlsx/aerob-run-3km.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="540" windowWidth="27495" windowHeight="12210"/>
+    <workbookView xWindow="630" yWindow="540" windowWidth="27495" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="lányok" sheetId="1" r:id="rId1"/>
@@ -378,7 +378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6145,9 +6145,9 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B2:T77">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
-      <formula>B3</formula>
+  <conditionalFormatting sqref="B3:T78">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
+      <formula>B2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6158,7 +6158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11925,9 +11925,9 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B2:T77">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>B3</formula>
+  <conditionalFormatting sqref="B3:T78">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+      <formula>B2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
